--- a/API명세서_excel.xlsx
+++ b/API명세서_excel.xlsx
@@ -1,21 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\aws_project\workspace\joinus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{657A1D24-25EA-4D87-A2B0-47BF88C100C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5880" yWindow="360" windowWidth="12885" windowHeight="14625" xr2:uid="{8EBA7900-FFD9-487D-8E83-EA2F59714916}"/>
+    <workbookView xWindow="5880" yWindow="360" windowWidth="12885" windowHeight="14625"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$33</definedName>
+  </definedNames>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,37 +27,19 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="95">
   <si>
     <t>/post/{postId}</t>
   </si>
   <si>
-    <t>GetMapping</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>해당 게시글 상세보기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>post/{postId}/applicant/list</t>
-  </si>
-  <si>
     <t>해당 게시글 신청자 리스트</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>PostMapping</t>
-  </si>
-  <si>
-    <t>PostMapping</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>post/apply/{postId}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>해당 게시글에 신청하기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -67,118 +51,306 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>/post/{userId}/host/applicant</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내가 신청한 게시글 리스트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내가 작성한 글 리스트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/post/{userId}/host/attend</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내가 참여한 게시글 리스트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해당 게시글 신청취소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/post/cancel/apply/{postId}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/post/{postId}/comment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해당 게시글 댓글 리스트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/post/{postId}/comment/submit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해당 게시글 댓글 작성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/post/{postId}/applicant/delete</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/post/{postId}/attend/delete</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해당 게시글 참석자 내보내기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해당 게시글 신청자 내보내기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/post/{postId}/applicant/accept</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해당 게시글 신청자 수락</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/post/update/{postId}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해당 게시글 수정하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/post/{postId}/delete</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해당 게시글 삭제하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/post/cancel/attend/{postId}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해당 게시글 참석취소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>POST</t>
+  </si>
+  <si>
+    <t>/auth/login</t>
+  </si>
+  <si>
+    <t>로그인</t>
+  </si>
+  <si>
+    <t>/auth/register</t>
+  </si>
+  <si>
+    <t>회원가입</t>
+  </si>
+  <si>
+    <t>/auth/oauth2/register</t>
+  </si>
+  <si>
+    <t>OAuth2 회원가입</t>
+  </si>
+  <si>
+    <t>PUT</t>
+  </si>
+  <si>
+    <t>/auth/oauth2/merge</t>
+  </si>
+  <si>
+    <t>OAuth2 통합</t>
+  </si>
+  <si>
+    <t>/auth/forget/password</t>
+  </si>
+  <si>
+    <t>비밀번호 변경 (로그인화면)</t>
+  </si>
+  <si>
+    <t>GET</t>
+  </si>
+  <si>
+    <t>/auth/forget/password/token</t>
+  </si>
+  <si>
+    <t>비밀번호 변경 (임시토큰 발급)</t>
+  </si>
+  <si>
+    <t>/auth/validation/send</t>
+  </si>
+  <si>
+    <t>이메일 유효성 검사</t>
+  </si>
+  <si>
+    <t>/auth/reset/password</t>
+  </si>
+  <si>
+    <t>비밀번호 초기화</t>
+  </si>
+  <si>
+    <t>/authenticated</t>
+  </si>
+  <si>
+    <t>인증</t>
+  </si>
+  <si>
+    <t>/account/check/password</t>
+  </si>
+  <si>
+    <t>기존 비밀번호 확인</t>
+  </si>
+  <si>
+    <t>/account/change/password</t>
+  </si>
+  <si>
+    <t>비밀번호 변경( 회원정보)</t>
+  </si>
+  <si>
+    <t>/account/change/address</t>
+  </si>
+  <si>
+    <t>주소 변경 (회원정보)</t>
+  </si>
+  <si>
+    <t>/account/change/nickname</t>
+  </si>
+  <si>
+    <t>닉네임 변경 (회원정보)</t>
+  </si>
+  <si>
+    <t>/account/principal</t>
+  </si>
+  <si>
+    <t>사용자 정보 조회</t>
+  </si>
+  <si>
+    <t>/account/profile/img</t>
+  </si>
+  <si>
+    <t>사용자 프로필 이미지 조회</t>
+  </si>
+  <si>
+    <t>/account/check/sportslikes</t>
+  </si>
+  <si>
+    <t>선호 운동 조회</t>
+  </si>
+  <si>
+    <t>/account/change/sportslikes</t>
+  </si>
+  <si>
+    <t>선호 운동 변경</t>
+  </si>
+  <si>
+    <t>/post/register</t>
+  </si>
+  <si>
+    <t>게시물 작성 API</t>
+  </si>
+  <si>
+    <t>/post/list</t>
+  </si>
+  <si>
+    <t>게시물 조회/검색 API</t>
+  </si>
+  <si>
+    <t>/option/sports</t>
+  </si>
+  <si>
+    <t>운동 선택 API</t>
+  </si>
+  <si>
+    <t>/option/regions</t>
+  </si>
+  <si>
+    <t>지역 선택 API</t>
+  </si>
+  <si>
+    <t>/option/levels</t>
+  </si>
+  <si>
+    <t>레벨 선택 API</t>
+  </si>
+  <si>
+    <t>/option/states</t>
+  </si>
+  <si>
+    <t>상태 선택 API</t>
+  </si>
+  <si>
+    <t>/option/searchs</t>
+  </si>
+  <si>
+    <t>검색 선택 API</t>
+  </si>
+  <si>
+    <t>/option/genders</t>
+  </si>
+  <si>
+    <t>성별 선택 API</t>
+  </si>
+  <si>
+    <t>Get</t>
+  </si>
+  <si>
+    <t>Post</t>
+  </si>
+  <si>
+    <t>Put</t>
+  </si>
+  <si>
+    <t>Delete</t>
+  </si>
+  <si>
+    <t>URI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Method</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/post/{postId}/applicant/list</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/post/apply/{postId}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>/post/{userId}/owner</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/post/{userId}/host/applicant</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>내가 신청한 게시글 리스트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>내가 작성한 글 리스트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/post/{userId}/host/attend</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>내가 참여한 게시글 리스트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>해당 게시글 신청취소</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DeleteMapping</t>
-  </si>
-  <si>
-    <t>DeleteMapping</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/post/cancel/apply/{postId}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/post/{postId}/comment</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>해당 게시글 댓글 리스트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/post/{postId}/comment/submit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>해당 게시글 댓글 작성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/post/{postId}/applicant/delete</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/post/{postId}/attend/delete</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>해당 게시글 참석자 내보내기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>해당 게시글 신청자 내보내기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/post/{postId}/applicant/accept</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>해당 게시글 신청자 수락</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PutMapping</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/post/update/{postId}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>해당 게시글 수정하기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/post/{postId}/delete</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>해당 게시글 삭제하기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/post/cancel/attend/{postId}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>해당 게시글 참석취소</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>/auth/oauth2/login</t>
+  </si>
+  <si>
+    <t>/auth/forget/password/{temporaryToken}</t>
+  </si>
+  <si>
+    <t>임시 토큰으로 비밀번호 재설정</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -191,6 +363,23 @@
       <sz val="8"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
@@ -217,8 +406,17 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -534,11 +732,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29002C69-3EA1-467B-933B-350356F5D406}">
-  <dimension ref="A1:C16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -550,182 +748,560 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="33" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="33" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D20" s="1"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>83</v>
+      </c>
+      <c r="B27" t="s">
+        <v>0</v>
+      </c>
+      <c r="C27" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>84</v>
+      </c>
+      <c r="B28" t="s">
+        <v>21</v>
+      </c>
+      <c r="C28" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>86</v>
+      </c>
+      <c r="B29" t="s">
+        <v>17</v>
+      </c>
+      <c r="C29" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>83</v>
+      </c>
+      <c r="B30" t="s">
+        <v>89</v>
+      </c>
+      <c r="C30" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>86</v>
+      </c>
+      <c r="B31" t="s">
+        <v>18</v>
+      </c>
+      <c r="C31" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>83</v>
+      </c>
+      <c r="B32" t="s">
+        <v>4</v>
+      </c>
+      <c r="C32" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>83</v>
+      </c>
+      <c r="B33" t="s">
+        <v>13</v>
+      </c>
+      <c r="C33" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>84</v>
+      </c>
+      <c r="B34" t="s">
+        <v>15</v>
+      </c>
+      <c r="C34" t="s">
+        <v>16</v>
+      </c>
+      <c r="D34" s="1"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>86</v>
+      </c>
+      <c r="B35" t="s">
+        <v>25</v>
+      </c>
+      <c r="C35" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>83</v>
+      </c>
+      <c r="B36" t="s">
+        <v>6</v>
+      </c>
+      <c r="C36" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>83</v>
+      </c>
+      <c r="B37" t="s">
+        <v>9</v>
+      </c>
+      <c r="C37" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>83</v>
+      </c>
+      <c r="B38" t="s">
+        <v>91</v>
+      </c>
+      <c r="C38" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>84</v>
+      </c>
+      <c r="B39" t="s">
+        <v>90</v>
+      </c>
+      <c r="C39" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" t="s">
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>86</v>
+      </c>
+      <c r="B40" t="s">
+        <v>12</v>
+      </c>
+      <c r="C40" t="s">
         <v>11</v>
       </c>
-      <c r="C5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" t="s">
-        <v>36</v>
-      </c>
-      <c r="C9" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" t="s">
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>86</v>
+      </c>
+      <c r="B41" t="s">
+        <v>27</v>
+      </c>
+      <c r="C41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" t="s">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" s="2" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>31</v>
-      </c>
-      <c r="B13" t="s">
-        <v>32</v>
-      </c>
-      <c r="C13" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14" t="s">
-        <v>34</v>
-      </c>
-      <c r="C14" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>1</v>
-      </c>
-      <c r="B15" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>5</v>
-      </c>
-      <c r="B16" t="s">
+      <c r="B43" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>85</v>
+      </c>
+      <c r="B44" t="s">
         <v>23</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C44" t="s">
         <v>24</v>
       </c>
     </row>
+    <row r="49" spans="9:12" x14ac:dyDescent="0.3">
+      <c r="I49" s="1"/>
+      <c r="J49" s="1"/>
+      <c r="K49" s="1"/>
+      <c r="L49" s="1"/>
+    </row>
+    <row r="50" spans="9:12" x14ac:dyDescent="0.3">
+      <c r="I50" s="2"/>
+    </row>
+    <row r="51" spans="9:12" x14ac:dyDescent="0.3">
+      <c r="I51" s="2"/>
+    </row>
+    <row r="52" spans="9:12" x14ac:dyDescent="0.3">
+      <c r="I52" s="2"/>
+    </row>
+    <row r="53" spans="9:12" x14ac:dyDescent="0.3">
+      <c r="I53" s="2"/>
+    </row>
+    <row r="54" spans="9:12" x14ac:dyDescent="0.3">
+      <c r="I54" s="2"/>
+    </row>
+    <row r="55" spans="9:12" x14ac:dyDescent="0.3">
+      <c r="I55" s="2"/>
+    </row>
+    <row r="56" spans="9:12" x14ac:dyDescent="0.3">
+      <c r="I56" s="2"/>
+    </row>
+    <row r="57" spans="9:12" x14ac:dyDescent="0.3">
+      <c r="I57" s="2"/>
+    </row>
+    <row r="58" spans="9:12" x14ac:dyDescent="0.3">
+      <c r="I58" s="2"/>
+    </row>
+    <row r="59" spans="9:12" x14ac:dyDescent="0.3">
+      <c r="I59" s="2"/>
+    </row>
+    <row r="60" spans="9:12" x14ac:dyDescent="0.3">
+      <c r="I60" s="2"/>
+    </row>
+    <row r="61" spans="9:12" x14ac:dyDescent="0.3">
+      <c r="I61" s="2"/>
+    </row>
+    <row r="62" spans="9:12" x14ac:dyDescent="0.3">
+      <c r="I62" s="2"/>
+    </row>
+    <row r="63" spans="9:12" x14ac:dyDescent="0.3">
+      <c r="I63" s="2"/>
+    </row>
+    <row r="64" spans="9:12" x14ac:dyDescent="0.3">
+      <c r="I64" s="2"/>
+    </row>
+    <row r="65" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I65" s="2"/>
+    </row>
+    <row r="66" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I66" s="2"/>
+    </row>
+    <row r="67" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I67" s="2"/>
+    </row>
+    <row r="68" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I68" s="2"/>
+    </row>
+    <row r="69" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I69" s="2"/>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:C33"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>